--- a/public/template/report/Template_Report_Staff_Login.xlsx
+++ b/public/template/report/Template_Report_Staff_Login.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadmukhtar/Projects/rpc-be/public/template/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87183DE0-C040-594A-A2A2-0CC47C2F4866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B737741-A48B-4D47-94C2-84F609E1458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16640" xr2:uid="{0674CD87-AF00-EC40-A640-CA30B1852CB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report Customer List" sheetId="1" r:id="rId1"/>
+    <sheet name="Report Staff Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
